--- a/example_generated_spreadsheet.xlsx
+++ b/example_generated_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\os4875st\Dropbox\PhD Tegenfeldt\.py\waves projects_shared\nd2handling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F4772-4A73-4530-AD06-6C0E415330F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A3546-798B-44A7-B324-A06A52980106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,8 +459,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
